--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/80/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/80/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7647647647647647</v>
+        <v>0.236023602360236</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1941.941941941942</v>
+        <v>1424.242424242424</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03773773773773774</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1761761761761762</v>
+        <v>0.1393139313931393</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.1521521521522</v>
+        <v>507.7807780778078</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.5065065065065</v>
+        <v>644.014401440144</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.07707707707708</v>
+        <v>722.2502250225023</v>
       </c>
     </row>
   </sheetData>
